--- a/Dokumentation/05-Auswertung_Bilder.xlsx
+++ b/Dokumentation/05-Auswertung_Bilder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8FE8C1-877E-4EE9-A3A5-973F4862406B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012721CF-C1F5-4963-8625-A9D145A4E5C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59130" yWindow="3690" windowWidth="28800" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="2960" windowWidth="21520" windowHeight="18010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>QR Code Größe</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Samsung S7</t>
+  </si>
+  <si>
+    <t>Nachtrag: Die Bilder wurden mit einem SONY SELP1650 16 mm - 50 mm f/3.5-5.6 OSS Objektiv gemacht.</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -569,6 +572,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
